--- a/web_app/TATAMOTORS.NS 6-26.xlsx
+++ b/web_app/TATAMOTORS.NS 6-26.xlsx
@@ -913,7 +913,7 @@
         <v>339</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1067602</v>
       </c>
       <c r="J2" t="s">
         <v>84</v>
@@ -945,7 +945,7 @@
         <v>340.5</v>
       </c>
       <c r="I3">
-        <v>1304625</v>
+        <v>2609250</v>
       </c>
       <c r="J3" t="s">
         <v>85</v>
@@ -977,7 +977,7 @@
         <v>340.0499877929688</v>
       </c>
       <c r="I4">
-        <v>779830</v>
+        <v>1559660</v>
       </c>
       <c r="J4" t="s">
         <v>86</v>
@@ -1009,7 +1009,7 @@
         <v>341.3999938964844</v>
       </c>
       <c r="I5">
-        <v>1045003</v>
+        <v>2090006</v>
       </c>
       <c r="J5" t="s">
         <v>87</v>
@@ -1041,7 +1041,7 @@
         <v>342.2999877929688</v>
       </c>
       <c r="I6">
-        <v>884345</v>
+        <v>1768690</v>
       </c>
       <c r="J6" t="s">
         <v>88</v>
@@ -1073,7 +1073,7 @@
         <v>341.5499877929688</v>
       </c>
       <c r="I7">
-        <v>704853</v>
+        <v>1409706</v>
       </c>
       <c r="J7" t="s">
         <v>89</v>
@@ -1105,7 +1105,7 @@
         <v>341.3999938964844</v>
       </c>
       <c r="I8">
-        <v>725213</v>
+        <v>1450426</v>
       </c>
       <c r="J8" t="s">
         <v>90</v>
@@ -1137,7 +1137,7 @@
         <v>340.6499938964844</v>
       </c>
       <c r="I9">
-        <v>515454</v>
+        <v>1030908</v>
       </c>
       <c r="J9" t="s">
         <v>91</v>
@@ -1169,7 +1169,7 @@
         <v>340.5</v>
       </c>
       <c r="I10">
-        <v>461678</v>
+        <v>923356</v>
       </c>
       <c r="J10" t="s">
         <v>92</v>
@@ -1201,7 +1201,7 @@
         <v>339.9500122070312</v>
       </c>
       <c r="I11">
-        <v>682461</v>
+        <v>1364922</v>
       </c>
       <c r="J11" t="s">
         <v>93</v>
@@ -1233,7 +1233,7 @@
         <v>340.8999938964844</v>
       </c>
       <c r="I12">
-        <v>285672</v>
+        <v>571344</v>
       </c>
       <c r="J12" t="s">
         <v>94</v>
@@ -1265,7 +1265,7 @@
         <v>341.2000122070312</v>
       </c>
       <c r="I13">
-        <v>248234</v>
+        <v>496468</v>
       </c>
       <c r="J13" t="s">
         <v>95</v>
@@ -1297,7 +1297,7 @@
         <v>340.5</v>
       </c>
       <c r="I14">
-        <v>120197</v>
+        <v>240394</v>
       </c>
       <c r="J14" t="s">
         <v>96</v>
@@ -1329,7 +1329,7 @@
         <v>340.8500061035156</v>
       </c>
       <c r="I15">
-        <v>111144</v>
+        <v>222288</v>
       </c>
       <c r="J15" t="s">
         <v>97</v>
@@ -1361,7 +1361,7 @@
         <v>340.8999938964844</v>
       </c>
       <c r="I16">
-        <v>301595</v>
+        <v>603190</v>
       </c>
       <c r="J16" t="s">
         <v>98</v>
@@ -1393,7 +1393,7 @@
         <v>341.1499938964844</v>
       </c>
       <c r="I17">
-        <v>336678</v>
+        <v>673356</v>
       </c>
       <c r="J17" t="s">
         <v>99</v>
@@ -1425,7 +1425,7 @@
         <v>341</v>
       </c>
       <c r="I18">
-        <v>233694</v>
+        <v>467388</v>
       </c>
       <c r="J18" t="s">
         <v>100</v>
@@ -1457,7 +1457,7 @@
         <v>340.75</v>
       </c>
       <c r="I19">
-        <v>159240</v>
+        <v>318480</v>
       </c>
       <c r="J19" t="s">
         <v>101</v>
@@ -1489,7 +1489,7 @@
         <v>340.4500122070312</v>
       </c>
       <c r="I20">
-        <v>199769</v>
+        <v>399538</v>
       </c>
       <c r="J20" t="s">
         <v>102</v>
@@ -1521,7 +1521,7 @@
         <v>340.8500061035156</v>
       </c>
       <c r="I21">
-        <v>207215</v>
+        <v>414430</v>
       </c>
       <c r="J21" t="s">
         <v>103</v>
@@ -1553,7 +1553,7 @@
         <v>340.6000061035156</v>
       </c>
       <c r="I22">
-        <v>147581</v>
+        <v>295162</v>
       </c>
       <c r="J22" t="s">
         <v>104</v>
@@ -1585,7 +1585,7 @@
         <v>340.6000061035156</v>
       </c>
       <c r="I23">
-        <v>173428</v>
+        <v>346856</v>
       </c>
       <c r="J23" t="s">
         <v>105</v>
@@ -1617,7 +1617,7 @@
         <v>341.4500122070312</v>
       </c>
       <c r="I24">
-        <v>240675</v>
+        <v>481350</v>
       </c>
       <c r="J24" t="s">
         <v>106</v>
@@ -1649,7 +1649,7 @@
         <v>340.9500122070312</v>
       </c>
       <c r="I25">
-        <v>108573</v>
+        <v>217146</v>
       </c>
       <c r="J25" t="s">
         <v>107</v>
@@ -1681,7 +1681,7 @@
         <v>340.5</v>
       </c>
       <c r="I26">
-        <v>208551</v>
+        <v>417102</v>
       </c>
       <c r="J26" t="s">
         <v>108</v>
@@ -1713,7 +1713,7 @@
         <v>340.6000061035156</v>
       </c>
       <c r="I27">
-        <v>125632</v>
+        <v>251264</v>
       </c>
       <c r="J27" t="s">
         <v>109</v>
@@ -1745,7 +1745,7 @@
         <v>340.6000061035156</v>
       </c>
       <c r="I28">
-        <v>124588</v>
+        <v>249176</v>
       </c>
       <c r="J28" t="s">
         <v>110</v>
@@ -1777,7 +1777,7 @@
         <v>340.1499938964844</v>
       </c>
       <c r="I29">
-        <v>171589</v>
+        <v>343178</v>
       </c>
       <c r="J29" t="s">
         <v>111</v>
@@ -1809,7 +1809,7 @@
         <v>339.75</v>
       </c>
       <c r="I30">
-        <v>258968</v>
+        <v>517936</v>
       </c>
       <c r="J30" t="s">
         <v>112</v>
@@ -1841,7 +1841,7 @@
         <v>340.6000061035156</v>
       </c>
       <c r="I31">
-        <v>386724</v>
+        <v>773448</v>
       </c>
       <c r="J31" t="s">
         <v>113</v>
@@ -1873,7 +1873,7 @@
         <v>340.5499877929688</v>
       </c>
       <c r="I32">
-        <v>119776</v>
+        <v>239552</v>
       </c>
       <c r="J32" t="s">
         <v>114</v>
@@ -1905,7 +1905,7 @@
         <v>341.1000061035156</v>
       </c>
       <c r="I33">
-        <v>208210</v>
+        <v>416420</v>
       </c>
       <c r="J33" t="s">
         <v>115</v>
@@ -1937,7 +1937,7 @@
         <v>340.8500061035156</v>
       </c>
       <c r="I34">
-        <v>73252</v>
+        <v>146504</v>
       </c>
       <c r="J34" t="s">
         <v>116</v>
@@ -1969,7 +1969,7 @@
         <v>340.3500061035156</v>
       </c>
       <c r="I35">
-        <v>74574</v>
+        <v>149148</v>
       </c>
       <c r="J35" t="s">
         <v>117</v>
@@ -2001,7 +2001,7 @@
         <v>340.25</v>
       </c>
       <c r="I36">
-        <v>160635</v>
+        <v>321270</v>
       </c>
       <c r="J36" t="s">
         <v>118</v>
@@ -2033,7 +2033,7 @@
         <v>340.0499877929688</v>
       </c>
       <c r="I37">
-        <v>224274</v>
+        <v>448548</v>
       </c>
       <c r="J37" t="s">
         <v>119</v>
@@ -2065,7 +2065,7 @@
         <v>339.6000061035156</v>
       </c>
       <c r="I38">
-        <v>298289</v>
+        <v>596578</v>
       </c>
       <c r="J38" t="s">
         <v>120</v>
@@ -2097,7 +2097,7 @@
         <v>339.2999877929688</v>
       </c>
       <c r="I39">
-        <v>206781</v>
+        <v>413562</v>
       </c>
       <c r="J39" t="s">
         <v>121</v>
@@ -2129,7 +2129,7 @@
         <v>339.2000122070312</v>
       </c>
       <c r="I40">
-        <v>197295</v>
+        <v>394590</v>
       </c>
       <c r="J40" t="s">
         <v>122</v>
@@ -2161,7 +2161,7 @@
         <v>339.4500122070312</v>
       </c>
       <c r="I41">
-        <v>228441</v>
+        <v>456882</v>
       </c>
       <c r="J41" t="s">
         <v>123</v>
@@ -2193,7 +2193,7 @@
         <v>339.7000122070312</v>
       </c>
       <c r="I42">
-        <v>119753</v>
+        <v>239506</v>
       </c>
       <c r="J42" t="s">
         <v>124</v>
@@ -2225,7 +2225,7 @@
         <v>340.1000061035156</v>
       </c>
       <c r="I43">
-        <v>210870</v>
+        <v>421740</v>
       </c>
       <c r="J43" t="s">
         <v>125</v>
@@ -2257,7 +2257,7 @@
         <v>339.4500122070312</v>
       </c>
       <c r="I44">
-        <v>107790</v>
+        <v>215580</v>
       </c>
       <c r="J44" t="s">
         <v>126</v>
@@ -2289,7 +2289,7 @@
         <v>339.5</v>
       </c>
       <c r="I45">
-        <v>87542</v>
+        <v>175084</v>
       </c>
       <c r="J45" t="s">
         <v>127</v>
@@ -2321,7 +2321,7 @@
         <v>339.2999877929688</v>
       </c>
       <c r="I46">
-        <v>114317</v>
+        <v>228634</v>
       </c>
       <c r="J46" t="s">
         <v>128</v>
@@ -2353,7 +2353,7 @@
         <v>339.2999877929688</v>
       </c>
       <c r="I47">
-        <v>87741</v>
+        <v>175482</v>
       </c>
       <c r="J47" t="s">
         <v>129</v>
@@ -2385,7 +2385,7 @@
         <v>339</v>
       </c>
       <c r="I48">
-        <v>286552</v>
+        <v>573104</v>
       </c>
       <c r="J48" t="s">
         <v>130</v>
@@ -2417,7 +2417,7 @@
         <v>338.2999877929688</v>
       </c>
       <c r="I49">
-        <v>171463</v>
+        <v>342926</v>
       </c>
       <c r="J49" t="s">
         <v>131</v>
@@ -2449,7 +2449,7 @@
         <v>338.7999877929688</v>
       </c>
       <c r="I50">
-        <v>208224</v>
+        <v>416448</v>
       </c>
       <c r="J50" t="s">
         <v>132</v>
@@ -2481,7 +2481,7 @@
         <v>338.7999877929688</v>
       </c>
       <c r="I51">
-        <v>185451</v>
+        <v>370902</v>
       </c>
       <c r="J51" t="s">
         <v>133</v>
@@ -2513,7 +2513,7 @@
         <v>338.6000061035156</v>
       </c>
       <c r="I52">
-        <v>280195</v>
+        <v>560390</v>
       </c>
       <c r="J52" t="s">
         <v>134</v>
@@ -2545,7 +2545,7 @@
         <v>339.3500061035156</v>
       </c>
       <c r="I53">
-        <v>247440</v>
+        <v>494880</v>
       </c>
       <c r="J53" t="s">
         <v>135</v>
@@ -2577,7 +2577,7 @@
         <v>339.3500061035156</v>
       </c>
       <c r="I54">
-        <v>157399</v>
+        <v>314798</v>
       </c>
       <c r="J54" t="s">
         <v>136</v>
@@ -2609,7 +2609,7 @@
         <v>339.6000061035156</v>
       </c>
       <c r="I55">
-        <v>147544</v>
+        <v>295088</v>
       </c>
       <c r="J55" t="s">
         <v>137</v>
@@ -2641,7 +2641,7 @@
         <v>339.8999938964844</v>
       </c>
       <c r="I56">
-        <v>110475</v>
+        <v>220950</v>
       </c>
       <c r="J56" t="s">
         <v>138</v>
@@ -2673,7 +2673,7 @@
         <v>339.7999877929688</v>
       </c>
       <c r="I57">
-        <v>528287</v>
+        <v>1056574</v>
       </c>
       <c r="J57" t="s">
         <v>139</v>
@@ -2705,7 +2705,7 @@
         <v>339.8999938964844</v>
       </c>
       <c r="I58">
-        <v>123675</v>
+        <v>247350</v>
       </c>
       <c r="J58" t="s">
         <v>140</v>
@@ -2737,7 +2737,7 @@
         <v>340.1000061035156</v>
       </c>
       <c r="I59">
-        <v>141620</v>
+        <v>283240</v>
       </c>
       <c r="J59" t="s">
         <v>141</v>
@@ -2769,7 +2769,7 @@
         <v>339.7000122070312</v>
       </c>
       <c r="I60">
-        <v>269819</v>
+        <v>539638</v>
       </c>
       <c r="J60" t="s">
         <v>142</v>
@@ -2801,7 +2801,7 @@
         <v>339.5</v>
       </c>
       <c r="I61">
-        <v>88006</v>
+        <v>176012</v>
       </c>
       <c r="J61" t="s">
         <v>143</v>
@@ -2833,7 +2833,7 @@
         <v>339.7000122070312</v>
       </c>
       <c r="I62">
-        <v>134007</v>
+        <v>268014</v>
       </c>
       <c r="J62" t="s">
         <v>144</v>
@@ -2865,7 +2865,7 @@
         <v>339.5</v>
       </c>
       <c r="I63">
-        <v>135873</v>
+        <v>271746</v>
       </c>
       <c r="J63" t="s">
         <v>145</v>
@@ -2897,7 +2897,7 @@
         <v>339.8999938964844</v>
       </c>
       <c r="I64">
-        <v>95194</v>
+        <v>190388</v>
       </c>
       <c r="J64" t="s">
         <v>146</v>
@@ -2929,7 +2929,7 @@
         <v>339.5</v>
       </c>
       <c r="I65">
-        <v>144751</v>
+        <v>289502</v>
       </c>
       <c r="J65" t="s">
         <v>147</v>
@@ -2961,7 +2961,7 @@
         <v>339.3500061035156</v>
       </c>
       <c r="I66">
-        <v>212902</v>
+        <v>425804</v>
       </c>
       <c r="J66" t="s">
         <v>148</v>
@@ -2993,7 +2993,7 @@
         <v>339.25</v>
       </c>
       <c r="I67">
-        <v>197730</v>
+        <v>395460</v>
       </c>
       <c r="J67" t="s">
         <v>149</v>
@@ -3025,7 +3025,7 @@
         <v>338.8500061035156</v>
       </c>
       <c r="I68">
-        <v>284365</v>
+        <v>568730</v>
       </c>
       <c r="J68" t="s">
         <v>150</v>
@@ -3057,7 +3057,7 @@
         <v>339.2000122070312</v>
       </c>
       <c r="I69">
-        <v>176431</v>
+        <v>352862</v>
       </c>
       <c r="J69" t="s">
         <v>151</v>
@@ -3089,7 +3089,7 @@
         <v>339.5499877929688</v>
       </c>
       <c r="I70">
-        <v>194507</v>
+        <v>389014</v>
       </c>
       <c r="J70" t="s">
         <v>152</v>
@@ -3121,7 +3121,7 @@
         <v>340</v>
       </c>
       <c r="I71">
-        <v>464874</v>
+        <v>929748</v>
       </c>
       <c r="J71" t="s">
         <v>153</v>
@@ -3153,7 +3153,7 @@
         <v>340</v>
       </c>
       <c r="I72">
-        <v>349043</v>
+        <v>698086</v>
       </c>
       <c r="J72" t="s">
         <v>154</v>
@@ -3185,7 +3185,7 @@
         <v>339.5</v>
       </c>
       <c r="I73">
-        <v>481370</v>
+        <v>962740</v>
       </c>
       <c r="J73" t="s">
         <v>155</v>
@@ -3217,7 +3217,7 @@
         <v>339.6000061035156</v>
       </c>
       <c r="I74">
-        <v>456527</v>
+        <v>913054</v>
       </c>
       <c r="J74" t="s">
         <v>156</v>
@@ -3249,7 +3249,7 @@
         <v>339.2000122070312</v>
       </c>
       <c r="I75">
-        <v>614845</v>
+        <v>1229690</v>
       </c>
       <c r="J75" t="s">
         <v>157</v>
@@ -3281,7 +3281,7 @@
         <v>339.0499877929688</v>
       </c>
       <c r="I76">
-        <v>275134</v>
+        <v>550268</v>
       </c>
       <c r="J76" t="s">
         <v>158</v>
